--- a/biology/Botanique/Exochorda_racemosa/Exochorda_racemosa.xlsx
+++ b/biology/Botanique/Exochorda_racemosa/Exochorda_racemosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Exochorde en grappes, Buisson de perles
 Exochorda racemosa, l'Exochorde en grappes, aussi appelé Buisson de perles, est une espèce d'arbustes à fleurs blanches de la famille des Rosaceae, originaire d'Asie tempérée et planté pour l'ornement.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un arbuste mesurant jusqu'à 3 m de haut. Les jeunes rameaux sont rouge-brun, puis deviennent bruns ; les bourgeons sont d'un pourpre foncé, trigones-ovoïdes, à l'apex obtus. Le pétiole mesure de 5 à 15 mm ou est presque absent ; le limbe foliaire est elliptique ou étroitement elliptique à oblong-obovale, long de 3,5 à 6,5 cm et large de 1,5 à 3,5 cm, glabre sur les deux faces, à base cunéiforme ou largement cunéiforme, à marge entière, rarement obtusément dentelée au-dessus du milieu, à l'apex obtus ou aigu, rarement apiculé[1].
-Appareil reproducteur
-Les inflorescences sont des racèmes de 2,5 à 3,5 cm de diamètre, portant entre six et dix fleurs ; le pédoncule et les pédicelles sont glabres ; les bractées sont largement lancéolées, mesurant environ 3 mm, glabres. Les fleurs mesurent de 2,5 à 3,5 cm de diamètre ; le pédicelle mesure de 3 à 5 mm de long. L'hypanthe est peu campanulé et glabre. Les sépales sont largement triangulaires, longs d'environ 2 mm, glabres, à l'apex obtus ou aigu. Les pétales sont obovales, d'environ 1,5 × 1 cm, à base brièvement griffée, à l'apex obtus. Les étamines sont de 15 à 20, par faisceaux de 3 ou 4. Le fruit est une capsule glabre ; le pédicelle fructifère mesure de 3 à 8 mm. La floraison a lieu en mai, la fructification de juin à juillet[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste mesurant jusqu'à 3 m de haut. Les jeunes rameaux sont rouge-brun, puis deviennent bruns ; les bourgeons sont d'un pourpre foncé, trigones-ovoïdes, à l'apex obtus. Le pétiole mesure de 5 à 15 mm ou est presque absent ; le limbe foliaire est elliptique ou étroitement elliptique à oblong-obovale, long de 3,5 à 6,5 cm et large de 1,5 à 3,5 cm, glabre sur les deux faces, à base cunéiforme ou largement cunéiforme, à marge entière, rarement obtusément dentelée au-dessus du milieu, à l'apex obtus ou aigu, rarement apiculé.
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce est originaire de l'est de la Chine, de Corée, de l'est de la Russie (Mandchourie) et d'Asie centrale (Kirghizstan, Tadjikistan et Ouzbékistan)[2]. Elle pousse sur des pentes ombragées, entre 200 et 500 m d'altitude[1]. Elle est plantée pour l'ornement en Amérique du Nord, en Europe, en Australie et en Nouvelle-Zélande[3] et s'est naturalisée dans certains états des États-Unis[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont des racèmes de 2,5 à 3,5 cm de diamètre, portant entre six et dix fleurs ; le pédoncule et les pédicelles sont glabres ; les bractées sont largement lancéolées, mesurant environ 3 mm, glabres. Les fleurs mesurent de 2,5 à 3,5 cm de diamètre ; le pédicelle mesure de 3 à 5 mm de long. L'hypanthe est peu campanulé et glabre. Les sépales sont largement triangulaires, longs d'environ 2 mm, glabres, à l'apex obtus ou aigu. Les pétales sont obovales, d'environ 1,5 × 1 cm, à base brièvement griffée, à l'apex obtus. Les étamines sont de 15 à 20, par faisceaux de 3 ou 4. Le fruit est une capsule glabre ; le pédicelle fructifère mesure de 3 à 8 mm. La floraison a lieu en mai, la fructification de juin à juillet.
 </t>
         </is>
       </c>
@@ -574,26 +595,130 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire de l'est de la Chine, de Corée, de l'est de la Russie (Mandchourie) et d'Asie centrale (Kirghizstan, Tadjikistan et Ouzbékistan). Elle pousse sur des pentes ombragées, entre 200 et 500 m d'altitude. Elle est plantée pour l'ornement en Amérique du Nord, en Europe, en Australie et en Nouvelle-Zélande et s'est naturalisée dans certains états des États-Unis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Exochorda_racemosa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exochorda_racemosa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Exochorda racemosa (Lindl.) Rehder, 1913[3].
-L'espèce a été initialement classée dans le genre Amelanchier sous le basionyme Amelanchier racemosa Fortune ex Lindl., 1847[3]. Certaines sources[2],[4],[5] considèrent l'espèce comme étant la seule du genre Exochorda.
-Cette espèce porte en français le nom vulgaire d'« Exochorde en grappes[3] » et également le nom vernaculaire de « Buisson de perles[6] ».
-Synonymes
-Exochorda racemosa a pour synonymes[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Exochorda racemosa (Lindl.) Rehder, 1913.
+L'espèce a été initialement classée dans le genre Amelanchier sous le basionyme Amelanchier racemosa Fortune ex Lindl., 1847. Certaines sources considèrent l'espèce comme étant la seule du genre Exochorda.
+Cette espèce porte en français le nom vulgaire d'« Exochorde en grappes » et également le nom vernaculaire de « Buisson de perles ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Exochorda_racemosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exochorda_racemosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Exochorda racemosa a pour synonymes :
 Albertia simplicifolia A.Regel
-Exochorda grandiflora var. prostrata Schwer.
-Sous-espèces et variétés
-Selon GBIF       (14 avril 2024)[3] :
+Exochorda grandiflora var. prostrata Schwer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Exochorda_racemosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exochorda_racemosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (14 avril 2024) :
 Exochorda racemosa subsp. racemosa
 Exochorda racemosa subsp. serratifolia (S.Moore) F.Y.Gao &amp; Maesen
 Exochorda racemosa var. giraldii (Hesse) Rehder
 Exochorda racemosa var. racemosa
 Exochorda racemosa var. wilsonii Rehder
-Selon Plants of the World online (POWO)                (14 avril 2024)[2] :
+Selon Plants of the World online (POWO)                (14 avril 2024) :
 Exochorda racemosa subsp. giraldii (Hesse) F.Y.Gao &amp; Maesen
 Exochorda racemosa subsp. racemosa
 Exochorda racemosa subsp. serratifolia (S.Moore) F.Y.Gao &amp; Maesen
